--- a/2des/bcd/aula03/exercicios/exercicio4.xlsx
+++ b/2des/bcd/aula03/exercicios/exercicio4.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5679E608-1F3A-4929-ACEF-75011D0387E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A51FDF-E0F3-43CB-8F69-8A09D2C97ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68435E5F-DC9A-48F7-82EF-04866506E219}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -206,8 +206,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -235,9 +243,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,7 +564,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,52 +587,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2129,5 +2138,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2des/bcd/aula03/exercicios/exercicio4.xlsx
+++ b/2des/bcd/aula03/exercicios/exercicio4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A51FDF-E0F3-43CB-8F69-8A09D2C97ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4E33BC-4B66-4AF0-BBF1-EE545ACE53DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68435E5F-DC9A-48F7-82EF-04866506E219}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
